--- a/Work Docu/Milestone.xlsx
+++ b/Work Docu/Milestone.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA88672F-DA1F-482C-BCAB-3C81FED2BEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,23 @@
     <definedName name="WindowDays">계산!$D$29</definedName>
     <definedName name="WindowOffset">계산!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -114,11 +126,15 @@
     <t>TRR</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>PDR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;"/>
@@ -464,7 +480,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight8">
-    <tableStyle name="Project Timeline" pivot="0" count="4">
+    <tableStyle name="Project Timeline" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
@@ -567,94 +583,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44112</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44114</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44115</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44116</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44117</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44118</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44119</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44121</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44122</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44123</c:v>
+                  <c:v>44152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44124</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44125</c:v>
+                  <c:v>44154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44126</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44127</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44128</c:v>
+                  <c:v>44157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44129</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44130</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44131</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44132</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44133</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44134</c:v>
+                  <c:v>44163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44135</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44136</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44137</c:v>
+                  <c:v>44166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44138</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44139</c:v>
+                  <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44140</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44141</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,94 +983,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44112</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44114</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44115</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44116</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44117</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44118</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44119</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44121</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44122</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44123</c:v>
+                  <c:v>44152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44124</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44125</c:v>
+                  <c:v>44154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44126</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44127</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44128</c:v>
+                  <c:v>44157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44129</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44130</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44131</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44132</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44133</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44134</c:v>
+                  <c:v>44163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44135</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44136</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44137</c:v>
+                  <c:v>44166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44138</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44139</c:v>
+                  <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44140</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44141</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,94 +1383,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44112</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44114</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44115</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44116</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44117</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44118</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44119</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44121</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44122</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44123</c:v>
+                  <c:v>44152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44124</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44125</c:v>
+                  <c:v>44154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44126</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44127</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44128</c:v>
+                  <c:v>44157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44129</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44130</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44131</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44132</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44133</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44134</c:v>
+                  <c:v>44163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44135</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44136</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44137</c:v>
+                  <c:v>44166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44138</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44139</c:v>
+                  <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44140</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44141</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,94 +1786,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44112</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44114</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44115</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44116</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44117</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44118</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44119</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44121</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44122</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44123</c:v>
+                  <c:v>44152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44124</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44125</c:v>
+                  <c:v>44154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44126</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44127</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44128</c:v>
+                  <c:v>44157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44129</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44130</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44131</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44132</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44133</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44134</c:v>
+                  <c:v>44163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44135</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44136</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44137</c:v>
+                  <c:v>44166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44138</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44139</c:v>
+                  <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44140</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44141</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,94 +2186,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44112</c:v>
+                  <c:v>44141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44113</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44114</c:v>
+                  <c:v>44143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44115</c:v>
+                  <c:v>44144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44116</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44117</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44118</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44119</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44121</c:v>
+                  <c:v>44150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44122</c:v>
+                  <c:v>44151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44123</c:v>
+                  <c:v>44152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44124</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44125</c:v>
+                  <c:v>44154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44126</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44127</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44128</c:v>
+                  <c:v>44157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44129</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44130</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44131</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44132</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44133</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44134</c:v>
+                  <c:v>44163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44135</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44136</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44137</c:v>
+                  <c:v>44166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44138</c:v>
+                  <c:v>44167</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44139</c:v>
+                  <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44140</c:v>
+                  <c:v>44169</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44141</c:v>
+                  <c:v>44170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,7 +3025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CDR</c:v>
+                  <c:v>PDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3061,7 +3077,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3381,7 +3396,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3948,7 +3962,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oct 2020</c:v>
+                  <c:v>Nov 2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4042,7 +4056,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4078,7 +4092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nov 2020</c:v>
+                  <c:v>Dec 2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4172,7 +4186,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.5</c:v>
@@ -4208,7 +4222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020년 11월</c:v>
+                  <c:v>2020년 12월</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4250,7 +4264,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4337,10 +4350,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -4370,7 +4383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020년 10월</c:v>
+                  <c:v>2020년 11월</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4565,10 +4578,91 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>계산!$E$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>06</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{91A215EF-E6AB-4415-A3C0-BCA03518DE8B}</c15:txfldGUID>
+                      <c15:f>계산!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>06</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>07</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{09DDF169-BA2C-4C09-B9ED-716D4C02ADEE}</c15:txfldGUID>
+                      <c15:f>계산!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>07</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$G$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4586,11 +4680,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{584DF960-3A6C-4660-8FFC-21D1DC3D879F}</c15:txfldGUID>
-                      <c15:f>계산!$E$72</c15:f>
+                      <c15:txfldGUID>{430AD501-83DF-4444-9CC0-70ECA850A32D}</c15:txfldGUID>
+                      <c15:f>계산!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4602,16 +4695,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000001B-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$F$72</c:f>
+                  <c:f>계산!$H$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4629,11 +4721,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{391F5AAF-519B-476D-B632-19E52A7EB711}</c15:txfldGUID>
-                      <c15:f>계산!$F$72</c15:f>
+                      <c15:txfldGUID>{14ACD93D-8578-42EE-B1E2-5D47A4FD683D}</c15:txfldGUID>
+                      <c15:f>계산!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4645,16 +4736,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000001C-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
+              <c:idx val="4"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$G$72</c:f>
+                  <c:f>계산!$I$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4672,11 +4762,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D1908F15-7496-4E28-B3FF-B366CB34C7F3}</c15:txfldGUID>
-                      <c15:f>계산!$G$72</c15:f>
+                      <c15:txfldGUID>{20BFE5BC-F155-4F2A-A588-ED3273D69424}</c15:txfldGUID>
+                      <c15:f>계산!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4688,16 +4777,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000001D-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$H$72</c:f>
+                  <c:f>계산!$J$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4715,11 +4803,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3CFE0A0-BA4E-4F35-8A60-C2B4EB405837}</c15:txfldGUID>
-                      <c15:f>계산!$H$72</c15:f>
+                      <c15:txfldGUID>{3524706A-07B7-4658-9659-494AC626BBDC}</c15:txfldGUID>
+                      <c15:f>계산!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4731,16 +4818,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000001E-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$I$72</c:f>
+                  <c:f>계산!$K$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4758,11 +4844,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{72F93760-B5DF-4C57-9C1B-AD4CCB8E8543}</c15:txfldGUID>
-                      <c15:f>계산!$I$72</c15:f>
+                      <c15:txfldGUID>{4CAEC9D7-F633-44D5-A50B-EBFE140E3DB2}</c15:txfldGUID>
+                      <c15:f>계산!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4774,16 +4859,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000001F-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$J$72</c:f>
+                  <c:f>계산!$L$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4801,11 +4885,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{30046E26-E9F4-4820-8B88-E9EFE944F814}</c15:txfldGUID>
-                      <c15:f>계산!$J$72</c15:f>
+                      <c15:txfldGUID>{A19B6FC7-4240-48CD-8853-F1FF173AA568}</c15:txfldGUID>
+                      <c15:f>계산!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4817,16 +4900,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000020-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$K$72</c:f>
+                  <c:f>계산!$M$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4844,11 +4926,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2AE3BB69-6079-4B10-ADBA-2EDCC1AEE395}</c15:txfldGUID>
-                      <c15:f>계산!$K$72</c15:f>
+                      <c15:txfldGUID>{A5899B06-BD90-4E10-B81F-2634F6C204F7}</c15:txfldGUID>
+                      <c15:f>계산!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4860,16 +4941,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000021-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$L$72</c:f>
+                  <c:f>계산!$N$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4887,11 +4967,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3951B2B6-7029-47DB-8D86-57A89FD4375D}</c15:txfldGUID>
-                      <c15:f>계산!$L$72</c15:f>
+                      <c15:txfldGUID>{0845FED4-581B-4C84-B511-0F8F42482DC9}</c15:txfldGUID>
+                      <c15:f>계산!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4903,16 +4982,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000022-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout/>
+              <c:idx val="10"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$M$72</c:f>
+                  <c:f>계산!$O$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4930,11 +5008,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B74FA8C2-E083-4344-8683-14D9E195764A}</c15:txfldGUID>
-                      <c15:f>계산!$M$72</c15:f>
+                      <c15:txfldGUID>{A5BE3DBE-577D-4F49-88FD-BAA4B5DCEEB4}</c15:txfldGUID>
+                      <c15:f>계산!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4946,16 +5023,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000023-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$N$72</c:f>
+                  <c:f>계산!$P$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4973,11 +5049,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B8F19B27-C29D-4874-A5F2-60CC4BDAF572}</c15:txfldGUID>
-                      <c15:f>계산!$N$72</c15:f>
+                      <c15:txfldGUID>{2A5B1652-0D0F-4A85-ABC3-2D2C17A5AAC7}</c15:txfldGUID>
+                      <c15:f>계산!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4989,16 +5064,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000024-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$O$72</c:f>
+                  <c:f>계산!$Q$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5016,11 +5090,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{49AB156B-FEE6-4B46-B190-617F633036A4}</c15:txfldGUID>
-                      <c15:f>계산!$O$72</c15:f>
+                      <c15:txfldGUID>{20EAAB4A-2129-4A97-8F1A-47F6875C9811}</c15:txfldGUID>
+                      <c15:f>계산!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5032,16 +5105,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000025-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout/>
+              <c:idx val="13"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$P$72</c:f>
+                  <c:f>계산!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5059,11 +5131,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E12DE966-D952-4A59-B87A-21D781E33B5E}</c15:txfldGUID>
-                      <c15:f>계산!$P$72</c15:f>
+                      <c15:txfldGUID>{F4D6B496-F3F9-4392-A38A-18CCB29BA45D}</c15:txfldGUID>
+                      <c15:f>계산!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5075,16 +5146,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000026-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout/>
+              <c:idx val="14"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$Q$72</c:f>
+                  <c:f>계산!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5102,11 +5172,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1B433A6C-A86F-4F7D-871E-477C0BC64FE9}</c15:txfldGUID>
-                      <c15:f>계산!$Q$72</c15:f>
+                      <c15:txfldGUID>{24A94088-7187-4264-94D8-EADF2B766AD6}</c15:txfldGUID>
+                      <c15:f>계산!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5118,16 +5187,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000027-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout/>
+              <c:idx val="15"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$R$72</c:f>
+                  <c:f>계산!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5145,11 +5213,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9C1E5632-A17A-49F2-BDEE-2E8EA834E988}</c15:txfldGUID>
-                      <c15:f>계산!$R$72</c15:f>
+                      <c15:txfldGUID>{194ADDAB-30FF-40C0-B781-29D7466F03D9}</c15:txfldGUID>
+                      <c15:f>계산!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5161,16 +5228,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000028-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout/>
+              <c:idx val="16"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$S$72</c:f>
+                  <c:f>계산!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5188,11 +5254,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C060637-819E-478C-94F0-8BCD1D8FE035}</c15:txfldGUID>
-                      <c15:f>계산!$S$72</c15:f>
+                      <c15:txfldGUID>{8BA238C6-302F-4E82-87B0-8771777B6078}</c15:txfldGUID>
+                      <c15:f>계산!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5204,16 +5269,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000029-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout/>
+              <c:idx val="17"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$T$72</c:f>
+                  <c:f>계산!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5231,11 +5295,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{339D47D3-314F-4493-9C06-41E3F39A51D4}</c15:txfldGUID>
-                      <c15:f>계산!$T$72</c15:f>
+                      <c15:txfldGUID>{B0E4D94B-727F-4AA6-9BBF-4971DA2324BA}</c15:txfldGUID>
+                      <c15:f>계산!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5247,16 +5310,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000002A-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout/>
+              <c:idx val="18"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$U$72</c:f>
+                  <c:f>계산!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5274,11 +5336,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{304056CE-C920-4334-B6D2-4FAB825291BE}</c15:txfldGUID>
-                      <c15:f>계산!$U$72</c15:f>
+                      <c15:txfldGUID>{DAC4AD20-3D9F-474C-A42F-573A27DD3C27}</c15:txfldGUID>
+                      <c15:f>계산!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5290,16 +5351,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000002B-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout/>
+              <c:idx val="19"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$V$72</c:f>
+                  <c:f>계산!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5317,11 +5377,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D95CB9AE-1234-4DAE-84DB-1A011ADD8071}</c15:txfldGUID>
-                      <c15:f>계산!$V$72</c15:f>
+                      <c15:txfldGUID>{42648DAE-F456-4718-B8D3-18117CD6A36F}</c15:txfldGUID>
+                      <c15:f>계산!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5333,16 +5392,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000002C-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
+              <c:idx val="20"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$W$72</c:f>
+                  <c:f>계산!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5360,11 +5418,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A6BCCFAD-67A2-45EE-AD41-155C3D5CCF19}</c15:txfldGUID>
-                      <c15:f>계산!$W$72</c15:f>
+                      <c15:txfldGUID>{DDDFDACC-06B4-4DB0-BE82-249ECDB7289A}</c15:txfldGUID>
+                      <c15:f>계산!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5376,16 +5433,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000002D-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
+              <c:idx val="21"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$X$72</c:f>
+                  <c:f>계산!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5403,11 +5459,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5AA60AFF-49A3-4B56-A256-6E118D010206}</c15:txfldGUID>
-                      <c15:f>계산!$X$72</c15:f>
+                      <c15:txfldGUID>{1848B5A9-F307-4CF5-B41F-DD6202382575}</c15:txfldGUID>
+                      <c15:f>계산!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5419,16 +5474,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000002E-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
+              <c:idx val="22"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$Y$72</c:f>
+                  <c:f>계산!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5446,11 +5500,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B077CAA6-F364-4BF0-AFF9-39BEA7C53E5C}</c15:txfldGUID>
-                      <c15:f>계산!$Y$72</c15:f>
+                      <c15:txfldGUID>{A5EF3923-1EAE-4E5D-9753-D7BF710E8F5A}</c15:txfldGUID>
+                      <c15:f>계산!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5462,16 +5515,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000002F-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
+              <c:idx val="23"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$Z$72</c:f>
+                  <c:f>계산!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5489,11 +5541,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C44BB48D-0414-4E73-9EFC-40276D28F6BE}</c15:txfldGUID>
-                      <c15:f>계산!$Z$72</c15:f>
+                      <c15:txfldGUID>{73D6BA48-4E30-4119-AFC6-91CD5951C0AB}</c15:txfldGUID>
+                      <c15:f>계산!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5505,16 +5556,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000030-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
+              <c:idx val="24"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AA$72</c:f>
+                  <c:f>계산!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5532,11 +5582,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{90355AA7-3D80-4CD5-8AD3-4A64D868EAF3}</c15:txfldGUID>
-                      <c15:f>계산!$AA$72</c15:f>
+                      <c15:txfldGUID>{699BCB0A-BC66-4943-8B6D-595AE557ABA2}</c15:txfldGUID>
+                      <c15:f>계산!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5548,59 +5597,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000031-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
+              <c:idx val="25"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>31</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{04F12585-B8A5-4D57-9C6C-1D531A1EC203}</c15:txfldGUID>
-                      <c15:f>계산!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>31</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AC$72</c:f>
+                  <c:f>계산!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5618,11 +5623,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6742C55F-7651-4D8B-BFDB-E0500B7B899F}</c15:txfldGUID>
-                      <c15:f>계산!$AC$72</c15:f>
+                      <c15:txfldGUID>{944CC116-603A-4A4C-A35B-F1E001AD8234}</c15:txfldGUID>
+                      <c15:f>계산!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5634,16 +5638,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000032-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
+              <c:idx val="26"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AD$72</c:f>
+                  <c:f>계산!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5661,11 +5664,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{65154BC6-4013-437F-B1E0-21DFE155CC46}</c15:txfldGUID>
-                      <c15:f>계산!$AD$72</c15:f>
+                      <c15:txfldGUID>{A0FB9164-1405-4AC6-B115-4C1BF4CEE8DE}</c15:txfldGUID>
+                      <c15:f>계산!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5677,16 +5679,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000033-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
+              <c:idx val="27"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AE$72</c:f>
+                  <c:f>계산!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5704,11 +5705,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{87FD37AE-37BB-4FB1-9555-05E376E03ED3}</c15:txfldGUID>
-                      <c15:f>계산!$AE$72</c15:f>
+                      <c15:txfldGUID>{F49DAF4B-34C1-4BEF-9891-71550A9D3928}</c15:txfldGUID>
+                      <c15:f>계산!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5720,16 +5720,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000034-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
+              <c:idx val="28"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AF$72</c:f>
+                  <c:f>계산!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5747,11 +5746,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3676F30E-44AF-4A25-A891-0E775134D30B}</c15:txfldGUID>
-                      <c15:f>계산!$AF$72</c15:f>
+                      <c15:txfldGUID>{F2A64F58-9CF8-45DA-A0E0-3D739D4A200D}</c15:txfldGUID>
+                      <c15:f>계산!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5763,16 +5761,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000035-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
+              <c:idx val="29"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AG$72</c:f>
+                  <c:f>계산!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5790,58 +5787,14 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7E82D7CD-3E3C-42E9-A0BD-CC92E78E964F}</c15:txfldGUID>
-                      <c15:f>계산!$AG$72</c15:f>
+                      <c15:txfldGUID>{7A0F2232-3927-4797-9C86-9055E130374D}</c15:txfldGUID>
+                      <c15:f>계산!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>05</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>06</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{26F0C8CA-8E6B-471E-BB91-875B59FFF957}</c15:txfldGUID>
-                      <c15:f>계산!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>06</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6007,10 +5960,255 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>계산!$E$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>금</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BA4A687C-4A0D-4F4F-B3C6-90D5AAC3D400}</c15:txfldGUID>
+                      <c15:f>계산!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>금</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>토</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{8A20461F-888A-449A-BE1A-7233AFF83E32}</c15:txfldGUID>
+                      <c15:f>계산!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>토</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>일</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{388A0624-2F64-4D24-8E65-5E16E538E4C2}</c15:txfldGUID>
+                      <c15:f>계산!$G$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>일</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$H$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>월</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{8C226639-7770-4BC9-992C-5544D178C861}</c15:txfldGUID>
+                      <c15:f>계산!$H$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>월</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$I$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>화</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{4041AEB8-32CD-4508-97A4-515301539E01}</c15:txfldGUID>
+                      <c15:f>계산!$I$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>화</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$J$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>수</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{076B8B40-C7FC-44A4-BA21-0D267FC7EF10}</c15:txfldGUID>
+                      <c15:f>계산!$J$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>수</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-D7B4-45D5-A722-D044773C43FD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>계산!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6028,11 +6226,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{016B7377-61B0-43E3-B2EF-7AD8469EC429}</c15:txfldGUID>
-                      <c15:f>계산!$E$70</c15:f>
+                      <c15:txfldGUID>{C5D2EA94-BC04-44A3-88B7-3413905B4332}</c15:txfldGUID>
+                      <c15:f>계산!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6044,16 +6241,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000003E-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$F$70</c:f>
+                  <c:f>계산!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6071,11 +6267,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{464EF4AC-F77E-430B-A073-35E4165DCBD7}</c15:txfldGUID>
-                      <c15:f>계산!$F$70</c15:f>
+                      <c15:txfldGUID>{FBAA48E7-786A-438E-9963-3FC901102492}</c15:txfldGUID>
+                      <c15:f>계산!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6087,16 +6282,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000003F-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$G$70</c:f>
+                  <c:f>계산!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6114,11 +6308,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{86B16077-F155-4BB1-911A-B18C65CFB4E1}</c15:txfldGUID>
-                      <c15:f>계산!$G$70</c15:f>
+                      <c15:txfldGUID>{2526603A-EAD3-4CEB-B5EA-3505D136E808}</c15:txfldGUID>
+                      <c15:f>계산!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6130,16 +6323,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000040-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$H$70</c:f>
+                  <c:f>계산!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6157,11 +6349,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D3205CF-B2C3-49D7-8F2C-B3C4BDD987BC}</c15:txfldGUID>
-                      <c15:f>계산!$H$70</c15:f>
+                      <c15:txfldGUID>{9D588E45-9A00-412B-B309-4FC9C3524FC3}</c15:txfldGUID>
+                      <c15:f>계산!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6173,16 +6364,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000041-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
+              <c:idx val="10"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$I$70</c:f>
+                  <c:f>계산!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6200,11 +6390,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1C2DBC1D-7233-4992-82AF-8B97B4D9EF46}</c15:txfldGUID>
-                      <c15:f>계산!$I$70</c15:f>
+                      <c15:txfldGUID>{67746320-5EC9-464A-AA77-696BBD4165B4}</c15:txfldGUID>
+                      <c15:f>계산!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6216,16 +6405,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000042-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
+              <c:idx val="11"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$J$70</c:f>
+                  <c:f>계산!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6243,11 +6431,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{57347A02-5240-4CB0-AE30-81EB5B5BDB4C}</c15:txfldGUID>
-                      <c15:f>계산!$J$70</c15:f>
+                      <c15:txfldGUID>{B6109C47-DE95-47CE-A557-CB6B800E86B0}</c15:txfldGUID>
+                      <c15:f>계산!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6259,16 +6446,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000043-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$K$70</c:f>
+                  <c:f>계산!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6286,11 +6472,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3353C2B1-6F4C-4A5B-ACC2-613D8B29371E}</c15:txfldGUID>
-                      <c15:f>계산!$K$70</c15:f>
+                      <c15:txfldGUID>{45A516F3-FFA8-4421-A13E-7E94227ED0E8}</c15:txfldGUID>
+                      <c15:f>계산!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6302,16 +6487,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000044-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
+              <c:idx val="13"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$L$70</c:f>
+                  <c:f>계산!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6329,11 +6513,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3831CB6-0A33-4D71-919D-0BE8DC8B8EA7}</c15:txfldGUID>
-                      <c15:f>계산!$L$70</c15:f>
+                      <c15:txfldGUID>{58D503B6-0C12-4209-A2A6-73E94DA5A282}</c15:txfldGUID>
+                      <c15:f>계산!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6345,16 +6528,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000045-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout/>
+              <c:idx val="14"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$M$70</c:f>
+                  <c:f>계산!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6372,11 +6554,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B8F9EC83-905A-4C96-ACE0-6C31EE697483}</c15:txfldGUID>
-                      <c15:f>계산!$M$70</c15:f>
+                      <c15:txfldGUID>{8C85326B-3C05-44DF-A0A8-B6FCF52EFD86}</c15:txfldGUID>
+                      <c15:f>계산!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6388,16 +6569,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000046-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
+              <c:idx val="15"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$N$70</c:f>
+                  <c:f>계산!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6415,11 +6595,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{269E1E29-8515-4F00-A554-52D32B4757BB}</c15:txfldGUID>
-                      <c15:f>계산!$N$70</c15:f>
+                      <c15:txfldGUID>{B967C322-DCB6-40AD-8E94-5435848CBE6E}</c15:txfldGUID>
+                      <c15:f>계산!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6431,16 +6610,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000041-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000047-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout/>
+              <c:idx val="16"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$O$70</c:f>
+                  <c:f>계산!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6458,11 +6636,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FBAD33C5-1E93-4819-A43F-05F1367B9ACD}</c15:txfldGUID>
-                      <c15:f>계산!$O$70</c15:f>
+                      <c15:txfldGUID>{176113A9-4DA7-4604-B38F-1B8D8A54813D}</c15:txfldGUID>
+                      <c15:f>계산!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6474,16 +6651,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000042-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000048-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout/>
+              <c:idx val="17"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$P$70</c:f>
+                  <c:f>계산!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6501,11 +6677,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E429D6EB-BCFE-4FAE-9BFC-008976F4365C}</c15:txfldGUID>
-                      <c15:f>계산!$P$70</c15:f>
+                      <c15:txfldGUID>{5C583CC8-0A0D-43FC-A65C-AB74E60C2C7B}</c15:txfldGUID>
+                      <c15:f>계산!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6517,16 +6692,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000043-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000049-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout/>
+              <c:idx val="18"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$Q$70</c:f>
+                  <c:f>계산!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6544,11 +6718,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AD3CF982-D75C-4A78-94A8-B9FA089670F2}</c15:txfldGUID>
-                      <c15:f>계산!$Q$70</c15:f>
+                      <c15:txfldGUID>{532BCBB6-99D8-459D-97C6-E503768A98D3}</c15:txfldGUID>
+                      <c15:f>계산!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6560,16 +6733,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000044-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000004A-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout/>
+              <c:idx val="19"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$R$70</c:f>
+                  <c:f>계산!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6587,11 +6759,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{98352529-7DC9-4EB2-B890-37C5D4A657CD}</c15:txfldGUID>
-                      <c15:f>계산!$R$70</c15:f>
+                      <c15:txfldGUID>{D96785AA-D50D-4EFF-899B-3EDE70CA2A6A}</c15:txfldGUID>
+                      <c15:f>계산!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6603,16 +6774,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000045-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000004B-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout/>
+              <c:idx val="20"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$S$70</c:f>
+                  <c:f>계산!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6630,11 +6800,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{68E5D952-99D9-42F8-AD6B-AFA0E77B9FDE}</c15:txfldGUID>
-                      <c15:f>계산!$S$70</c15:f>
+                      <c15:txfldGUID>{F8DAF875-184B-4EF1-9559-912D07D921C8}</c15:txfldGUID>
+                      <c15:f>계산!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6646,16 +6815,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000046-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000004C-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout/>
+              <c:idx val="21"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$T$70</c:f>
+                  <c:f>계산!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6673,11 +6841,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ED898528-3B50-486C-8F7E-8559DCF43D8C}</c15:txfldGUID>
-                      <c15:f>계산!$T$70</c15:f>
+                      <c15:txfldGUID>{44C10C9D-9C02-4954-B188-F70B3D75BAC4}</c15:txfldGUID>
+                      <c15:f>계산!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6689,16 +6856,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000047-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000004D-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout/>
+              <c:idx val="22"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$U$70</c:f>
+                  <c:f>계산!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6716,11 +6882,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0DCEB0D2-FAEF-4BE0-9642-E6B840DDA7FD}</c15:txfldGUID>
-                      <c15:f>계산!$U$70</c15:f>
+                      <c15:txfldGUID>{D162F8FD-BA59-4295-8907-E5183D0C8660}</c15:txfldGUID>
+                      <c15:f>계산!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6732,16 +6897,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000048-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000004E-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout/>
+              <c:idx val="23"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$V$70</c:f>
+                  <c:f>계산!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6759,11 +6923,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1BFE7713-C468-400A-AA3F-E52956B12B47}</c15:txfldGUID>
-                      <c15:f>계산!$V$70</c15:f>
+                      <c15:txfldGUID>{B6BD070E-B5CF-44D4-A234-1646A4AEA540}</c15:txfldGUID>
+                      <c15:f>계산!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6775,16 +6938,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000049-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{0000004F-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
+              <c:idx val="24"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$W$70</c:f>
+                  <c:f>계산!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6802,11 +6964,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4767FBB7-2389-421C-A840-7581554BB18F}</c15:txfldGUID>
-                      <c15:f>계산!$W$70</c15:f>
+                      <c15:txfldGUID>{44CC305A-F554-416B-B2D8-2639F2E18942}</c15:txfldGUID>
+                      <c15:f>계산!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6818,16 +6979,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004A-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000050-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
+              <c:idx val="25"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$X$70</c:f>
+                  <c:f>계산!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6845,11 +7005,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66AF00CA-A519-4E8B-AE46-9CA03CC45DA5}</c15:txfldGUID>
-                      <c15:f>계산!$X$70</c15:f>
+                      <c15:txfldGUID>{6F834ABA-C621-4716-A9A0-C58A2A1EECE5}</c15:txfldGUID>
+                      <c15:f>계산!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6861,16 +7020,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004B-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000051-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
+              <c:idx val="26"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$Y$70</c:f>
+                  <c:f>계산!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6888,11 +7046,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5C63DE19-1525-4AD7-AD44-43BA74BB71D7}</c15:txfldGUID>
-                      <c15:f>계산!$Y$70</c15:f>
+                      <c15:txfldGUID>{EBEB8F59-9FDF-4C1C-8204-CA395A92A3D8}</c15:txfldGUID>
+                      <c15:f>계산!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6904,16 +7061,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004C-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000052-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
+              <c:idx val="27"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$Z$70</c:f>
+                  <c:f>계산!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6931,11 +7087,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EAEB0EB3-35EF-47F4-B128-A2ECF15CDA73}</c15:txfldGUID>
-                      <c15:f>계산!$Z$70</c15:f>
+                      <c15:txfldGUID>{75E54C65-AA63-4D16-ADF8-B76BD65F2804}</c15:txfldGUID>
+                      <c15:f>계산!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6947,16 +7102,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004D-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000053-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
+              <c:idx val="28"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AA$70</c:f>
+                  <c:f>계산!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6974,11 +7128,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{85956A18-0768-4F51-AA59-DF6279EB1FE5}</c15:txfldGUID>
-                      <c15:f>계산!$AA$70</c15:f>
+                      <c15:txfldGUID>{6C08E6C4-8F49-4719-8CFE-A01A2692B6A3}</c15:txfldGUID>
+                      <c15:f>계산!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6990,16 +7143,15 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004E-D7B4-45D5-A722-D044773C43FD}"/>
+                  <c16:uniqueId val="{00000054-D7B4-45D5-A722-D044773C43FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
+              <c:idx val="29"/>
               <c:tx>
                 <c:strRef>
-                  <c:f>계산!$AB$70</c:f>
+                  <c:f>계산!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7017,273 +7169,14 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5E73B72E-25D6-4850-95A3-DD95F4741D94}</c15:txfldGUID>
-                      <c15:f>계산!$AB$70</c15:f>
+                      <c15:txfldGUID>{735AFE33-2B91-4551-B750-C5AFF9EED31A}</c15:txfldGUID>
+                      <c15:f>계산!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>토</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004F-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AC$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>일</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E57675F6-D1B1-4365-BB4E-3F58BDF9AC3E}</c15:txfldGUID>
-                      <c15:f>계산!$AC$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>일</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000050-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AD$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>월</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2FF69031-DCA4-407F-904F-72F9943A95DD}</c15:txfldGUID>
-                      <c15:f>계산!$AD$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>월</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000051-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AE$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>화</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CB4F23B9-7B3E-49CE-851D-693E4E8EB0EF}</c15:txfldGUID>
-                      <c15:f>계산!$AE$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>화</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000052-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AF$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>수</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{635C6554-E129-49AA-8E73-1609316F7534}</c15:txfldGUID>
-                      <c15:f>계산!$AF$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>수</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000053-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>목</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{934B1604-1BE3-4109-84EB-FA6CD5B50D0C}</c15:txfldGUID>
-                      <c15:f>계산!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>목</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000054-D7B4-45D5-A722-D044773C43FD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>계산!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>금</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{88E72452-2761-44FE-8C6F-67E8C3C018B9}</c15:txfldGUID>
-                      <c15:f>계산!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>금</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7443,7 +7336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020년 10월 - Top Band</c:v>
+                  <c:v>2020년 11월 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7537,7 +7430,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -7573,7 +7466,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020년 11월 - Top Band</c:v>
+                  <c:v>2020년 12월 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7667,7 +7560,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13</c:v>
@@ -7805,7 +7698,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="시간 표시 막대 차트" descr="Scrollable timeline of the project activities." title="Timeline Chart"/>
+        <xdr:cNvPr id="7" name="시간 표시 막대 차트" descr="Scrollable timeline of the project activities." title="Timeline Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7842,6 +7741,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7871,23 +7773,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B22:F34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B22:F34"/>
-  <sortState ref="C20:F25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Activities" displayName="Activities" ref="B22:F34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B22:F34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" name="Id" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Id" dataDxfId="4">
       <calculatedColumnFormula>N(B22)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="활동" dataDxfId="3"/>
-    <tableColumn id="2" name="시작" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="활동" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="시작" dataDxfId="2">
       <calculatedColumnFormula>D22+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="종료" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="종료" dataDxfId="1">
       <calculatedColumnFormula>Activities[[#This Row],[시작]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="참고" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="참고" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project Timeline" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -8124,15 +8026,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8178,7 +8080,7 @@
       </c>
       <c r="D20" s="11">
         <f ca="1">TODAY()-3</f>
-        <v>44108</v>
+        <v>44137</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -8212,11 +8114,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23" s="15">
         <f ca="1">D20+5</f>
-        <v>44113</v>
+        <v>44142</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
@@ -8231,11 +8133,11 @@
       </c>
       <c r="D24" s="15">
         <f ca="1">D23+5</f>
-        <v>44118</v>
+        <v>44147</v>
       </c>
       <c r="E24" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+0</f>
-        <v>44118</v>
+        <v>44147</v>
       </c>
       <c r="F24" s="14"/>
     </row>
@@ -8249,11 +8151,11 @@
       </c>
       <c r="D25" s="15">
         <f ca="1">D24+1</f>
-        <v>44119</v>
+        <v>44148</v>
       </c>
       <c r="E25" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+28</f>
-        <v>44147</v>
+        <v>44176</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -8267,7 +8169,7 @@
       </c>
       <c r="D26" s="15">
         <f ca="1">E25+5</f>
-        <v>44152</v>
+        <v>44181</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
@@ -8282,11 +8184,11 @@
       </c>
       <c r="D27" s="15">
         <f t="shared" ref="D27:D34" ca="1" si="1">D26+10</f>
-        <v>44162</v>
+        <v>44191</v>
       </c>
       <c r="E27" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+2</f>
-        <v>44164</v>
+        <v>44193</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -8300,11 +8202,11 @@
       </c>
       <c r="D28" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44172</v>
+        <v>44201</v>
       </c>
       <c r="E28" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+2</f>
-        <v>44174</v>
+        <v>44203</v>
       </c>
       <c r="F28" s="14"/>
     </row>
@@ -8318,11 +8220,11 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44182</v>
+        <v>44211</v>
       </c>
       <c r="E29" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+2</f>
-        <v>44184</v>
+        <v>44213</v>
       </c>
       <c r="F29" s="14"/>
     </row>
@@ -8336,7 +8238,7 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44192</v>
+        <v>44221</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14"/>
@@ -8351,11 +8253,11 @@
       </c>
       <c r="D31" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E31" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+2</f>
-        <v>44204</v>
+        <v>44233</v>
       </c>
       <c r="F31" s="14"/>
     </row>
@@ -8369,11 +8271,11 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44212</v>
+        <v>44241</v>
       </c>
       <c r="E32" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+2</f>
-        <v>44214</v>
+        <v>44243</v>
       </c>
       <c r="F32" s="14"/>
     </row>
@@ -8387,11 +8289,11 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44222</v>
+        <v>44251</v>
       </c>
       <c r="E33" s="15">
         <f ca="1">Activities[[#This Row],[시작]]+2</f>
-        <v>44224</v>
+        <v>44253</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -8405,7 +8307,7 @@
       </c>
       <c r="D34" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44232</v>
+        <v>44261</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14"/>
@@ -8461,7 +8363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI72"/>
   <sheetViews>
@@ -8490,7 +8392,7 @@
       </c>
       <c r="D3" s="18">
         <f ca="1">TODAY()</f>
-        <v>44111</v>
+        <v>44140</v>
       </c>
       <c r="E3" s="18"/>
     </row>
@@ -8668,7 +8570,7 @@
       </c>
       <c r="D25" s="18">
         <f ca="1">StartDate+WindowOffset</f>
-        <v>44112</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -8685,7 +8587,7 @@
       </c>
       <c r="D28" s="19">
         <f ca="1">'프로젝트 시간 표시 막대'!D20</f>
-        <v>44108</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
@@ -8711,127 +8613,127 @@
       </c>
       <c r="E31" s="18">
         <f ca="1">StartDateWindow</f>
-        <v>44112</v>
+        <v>44141</v>
       </c>
       <c r="F31" s="18">
         <f t="shared" ref="F31:AI31" ca="1" si="1">E31+1</f>
-        <v>44113</v>
+        <v>44142</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44114</v>
+        <v>44143</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44115</v>
+        <v>44144</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44116</v>
+        <v>44145</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44146</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44118</v>
+        <v>44147</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44119</v>
+        <v>44148</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44121</v>
+        <v>44150</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44122</v>
+        <v>44151</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44123</v>
+        <v>44152</v>
       </c>
       <c r="Q31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44124</v>
+        <v>44153</v>
       </c>
       <c r="R31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44125</v>
+        <v>44154</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44126</v>
+        <v>44155</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44127</v>
+        <v>44156</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44128</v>
+        <v>44157</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44129</v>
+        <v>44158</v>
       </c>
       <c r="W31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44130</v>
+        <v>44159</v>
       </c>
       <c r="X31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44131</v>
+        <v>44160</v>
       </c>
       <c r="Y31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44132</v>
+        <v>44161</v>
       </c>
       <c r="Z31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44133</v>
+        <v>44162</v>
       </c>
       <c r="AA31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44134</v>
+        <v>44163</v>
       </c>
       <c r="AB31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44135</v>
+        <v>44164</v>
       </c>
       <c r="AC31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44136</v>
+        <v>44165</v>
       </c>
       <c r="AD31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44137</v>
+        <v>44166</v>
       </c>
       <c r="AE31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44138</v>
+        <v>44167</v>
       </c>
       <c r="AF31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44139</v>
+        <v>44168</v>
       </c>
       <c r="AG31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44140</v>
+        <v>44169</v>
       </c>
       <c r="AH31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44141</v>
+        <v>44170</v>
       </c>
       <c r="AI31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44142</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -9693,7 +9595,7 @@
       </c>
       <c r="D38" s="17" t="str">
         <f ca="1">INDEX(Activities[활동],MATCH($C38,Activities[Id],0))</f>
-        <v>CDR</v>
+        <v>PDR</v>
       </c>
       <c r="E38" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -10105,123 +10007,123 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E43" s="18">
         <f ca="1">E31</f>
-        <v>44112</v>
+        <v>44141</v>
       </c>
       <c r="F43" s="18">
         <f t="shared" ref="F43:AH43" ca="1" si="4">F31</f>
-        <v>44113</v>
+        <v>44142</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44114</v>
+        <v>44143</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44115</v>
+        <v>44144</v>
       </c>
       <c r="I43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44116</v>
+        <v>44145</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44117</v>
+        <v>44146</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44118</v>
+        <v>44147</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44119</v>
+        <v>44148</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="N43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44121</v>
+        <v>44150</v>
       </c>
       <c r="O43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44122</v>
+        <v>44151</v>
       </c>
       <c r="P43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44123</v>
+        <v>44152</v>
       </c>
       <c r="Q43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44124</v>
+        <v>44153</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44125</v>
+        <v>44154</v>
       </c>
       <c r="S43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44126</v>
+        <v>44155</v>
       </c>
       <c r="T43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44127</v>
+        <v>44156</v>
       </c>
       <c r="U43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44128</v>
+        <v>44157</v>
       </c>
       <c r="V43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44129</v>
+        <v>44158</v>
       </c>
       <c r="W43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44130</v>
+        <v>44159</v>
       </c>
       <c r="X43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44131</v>
+        <v>44160</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44132</v>
+        <v>44161</v>
       </c>
       <c r="Z43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44133</v>
+        <v>44162</v>
       </c>
       <c r="AA43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44134</v>
+        <v>44163</v>
       </c>
       <c r="AB43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44135</v>
+        <v>44164</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44136</v>
+        <v>44165</v>
       </c>
       <c r="AD43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44137</v>
+        <v>44166</v>
       </c>
       <c r="AE43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44138</v>
+        <v>44167</v>
       </c>
       <c r="AF43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44139</v>
+        <v>44168</v>
       </c>
       <c r="AG43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44140</v>
+        <v>44169</v>
       </c>
       <c r="AH43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>44141</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -11011,7 +10913,7 @@
       </c>
       <c r="D50" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[활동],MATCH($C50,Activities[Id],0)))</f>
-        <v>CDR</v>
+        <v>PDR</v>
       </c>
       <c r="E50" s="17" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11397,123 +11299,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E55" s="18">
         <f ca="1">E31</f>
-        <v>44112</v>
+        <v>44141</v>
       </c>
       <c r="F55" s="18">
         <f t="shared" ref="F55:AH55" ca="1" si="15">F31</f>
-        <v>44113</v>
+        <v>44142</v>
       </c>
       <c r="G55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44114</v>
+        <v>44143</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44115</v>
+        <v>44144</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44116</v>
+        <v>44145</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44117</v>
+        <v>44146</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44118</v>
+        <v>44147</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44119</v>
+        <v>44148</v>
       </c>
       <c r="M55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44120</v>
+        <v>44149</v>
       </c>
       <c r="N55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44121</v>
+        <v>44150</v>
       </c>
       <c r="O55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44122</v>
+        <v>44151</v>
       </c>
       <c r="P55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44123</v>
+        <v>44152</v>
       </c>
       <c r="Q55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44124</v>
+        <v>44153</v>
       </c>
       <c r="R55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44125</v>
+        <v>44154</v>
       </c>
       <c r="S55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44126</v>
+        <v>44155</v>
       </c>
       <c r="T55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44127</v>
+        <v>44156</v>
       </c>
       <c r="U55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44128</v>
+        <v>44157</v>
       </c>
       <c r="V55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44129</v>
+        <v>44158</v>
       </c>
       <c r="W55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44130</v>
+        <v>44159</v>
       </c>
       <c r="X55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44131</v>
+        <v>44160</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44132</v>
+        <v>44161</v>
       </c>
       <c r="Z55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44133</v>
+        <v>44162</v>
       </c>
       <c r="AA55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44134</v>
+        <v>44163</v>
       </c>
       <c r="AB55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44135</v>
+        <v>44164</v>
       </c>
       <c r="AC55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44136</v>
+        <v>44165</v>
       </c>
       <c r="AD55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44137</v>
+        <v>44166</v>
       </c>
       <c r="AE55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44138</v>
+        <v>44167</v>
       </c>
       <c r="AF55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44139</v>
+        <v>44168</v>
       </c>
       <c r="AG55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44140</v>
+        <v>44169</v>
       </c>
       <c r="AH55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>44141</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
@@ -11644,7 +11546,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D58" s="20">
         <f ca="1">DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="E58" s="17">
         <f ca="1">IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11742,9 +11644,9 @@
         <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="AC58" s="17" t="e">
+      <c r="AC58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AD58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
@@ -11770,7 +11672,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D59" s="20" t="str">
         <f ca="1">TEXT(D58,"yyyy년 M월") &amp; " - Top Band"</f>
-        <v>2020년 10월 - Top Band</v>
+        <v>2020년 11월 - Top Band</v>
       </c>
       <c r="E59" s="17">
         <f ca="1">E58+12.5</f>
@@ -11868,9 +11770,9 @@
         <f t="shared" ca="1" si="18"/>
         <v>13</v>
       </c>
-      <c r="AC59" s="17" t="e">
+      <c r="AC59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AD59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
@@ -11899,7 +11801,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D61" s="20">
         <f ca="1">EOMONTH(D58,0)+1</f>
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="E61" s="17" t="e">
         <f ca="1">IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -11997,9 +11899,9 @@
         <f t="shared" ca="1" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="AC61" s="17">
+      <c r="AC61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AD61" s="17">
         <f t="shared" ca="1" si="19"/>
@@ -12025,7 +11927,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D62" s="20" t="str">
         <f ca="1">TEXT(D61,"yyyy년 M월") &amp; " - Top Band"</f>
-        <v>2020년 11월 - Top Band</v>
+        <v>2020년 12월 - Top Band</v>
       </c>
       <c r="E62" s="17" t="e">
         <f ca="1">E61+12.5</f>
@@ -12123,9 +12025,9 @@
         <f t="shared" ca="1" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="AC62" s="17">
+      <c r="AC62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AD62" s="17">
         <f t="shared" ca="1" si="20"/>
@@ -12154,7 +12056,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D65" s="21">
         <f ca="1">D58+1</f>
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="E65" s="17" t="e">
         <f ca="1">IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -12280,7 +12182,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D66" s="21">
         <f ca="1">D61+1</f>
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="E66" s="17" t="e">
         <f ca="1">IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12382,13 +12284,13 @@
         <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AD66" s="17">
+      <c r="AD66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE66" s="17">
         <f t="shared" ca="1" si="21"/>
         <v>0.5</v>
-      </c>
-      <c r="AE66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
       </c>
       <c r="AF66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
@@ -12530,123 +12432,123 @@
       </c>
       <c r="E70" s="17" t="str">
         <f t="shared" ref="E70:AH70" ca="1" si="23">LEFT(UPPER(TEXT(E55,"[$-412]ddd")),$D70)</f>
-        <v>목</v>
+        <v>금</v>
       </c>
       <c r="F70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>금</v>
+        <v>토</v>
       </c>
       <c r="G70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>토</v>
+        <v>일</v>
       </c>
       <c r="H70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>일</v>
+        <v>월</v>
       </c>
       <c r="I70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>월</v>
+        <v>화</v>
       </c>
       <c r="J70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>화</v>
+        <v>수</v>
       </c>
       <c r="K70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>수</v>
+        <v>목</v>
       </c>
       <c r="L70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>목</v>
+        <v>금</v>
       </c>
       <c r="M70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>금</v>
+        <v>토</v>
       </c>
       <c r="N70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>토</v>
+        <v>일</v>
       </c>
       <c r="O70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>일</v>
+        <v>월</v>
       </c>
       <c r="P70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>월</v>
+        <v>화</v>
       </c>
       <c r="Q70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>화</v>
+        <v>수</v>
       </c>
       <c r="R70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>수</v>
+        <v>목</v>
       </c>
       <c r="S70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>목</v>
+        <v>금</v>
       </c>
       <c r="T70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>금</v>
+        <v>토</v>
       </c>
       <c r="U70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>토</v>
+        <v>일</v>
       </c>
       <c r="V70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>일</v>
+        <v>월</v>
       </c>
       <c r="W70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>월</v>
+        <v>화</v>
       </c>
       <c r="X70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>화</v>
+        <v>수</v>
       </c>
       <c r="Y70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>수</v>
+        <v>목</v>
       </c>
       <c r="Z70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>목</v>
+        <v>금</v>
       </c>
       <c r="AA70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>금</v>
+        <v>토</v>
       </c>
       <c r="AB70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>토</v>
+        <v>일</v>
       </c>
       <c r="AC70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>일</v>
+        <v>월</v>
       </c>
       <c r="AD70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>월</v>
+        <v>화</v>
       </c>
       <c r="AE70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>화</v>
+        <v>수</v>
       </c>
       <c r="AF70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>수</v>
+        <v>목</v>
       </c>
       <c r="AG70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>목</v>
+        <v>금</v>
       </c>
       <c r="AH70" s="17" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>금</v>
+        <v>토</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.2">
@@ -12773,123 +12675,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E72" s="17" t="str">
         <f ca="1">TEXT(E55,"dd")</f>
-        <v>08</v>
+        <v>06</v>
       </c>
       <c r="F72" s="17" t="str">
         <f t="shared" ref="F72:AH72" ca="1" si="24">TEXT(F55,"dd")</f>
-        <v>09</v>
+        <v>07</v>
       </c>
       <c r="G72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>08</v>
       </c>
       <c r="H72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>11</v>
+        <v>09</v>
       </c>
       <c r="I72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>01</v>
+        <v>30</v>
       </c>
       <c r="AD72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="AE72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="AF72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="AG72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="AH72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>06</v>
+        <v>05</v>
       </c>
     </row>
   </sheetData>
